--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H2">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I2">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J2">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.81400923213459</v>
+        <v>0.1058645</v>
       </c>
       <c r="N2">
-        <v>2.81400923213459</v>
+        <v>0.211729</v>
       </c>
       <c r="O2">
-        <v>0.2583363546629614</v>
+        <v>0.009133991451461643</v>
       </c>
       <c r="P2">
-        <v>0.2583363546629614</v>
+        <v>0.007982871865007578</v>
       </c>
       <c r="Q2">
-        <v>1.157627229126962</v>
+        <v>0.07081170540499999</v>
       </c>
       <c r="R2">
-        <v>1.157627229126962</v>
+        <v>0.28324682162</v>
       </c>
       <c r="S2">
-        <v>0.002169366169479093</v>
+        <v>0.0001077820106339002</v>
       </c>
       <c r="T2">
-        <v>0.002169366169479093</v>
+        <v>9.186625294397946E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,557 +590,1425 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H3">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I3">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J3">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.078802334421299</v>
+        <v>3.282732333333333</v>
       </c>
       <c r="N3">
-        <v>8.078802334421299</v>
+        <v>9.848196999999999</v>
       </c>
       <c r="O3">
-        <v>0.7416636453370387</v>
+        <v>0.2832342198763835</v>
       </c>
       <c r="P3">
-        <v>0.7416636453370387</v>
+        <v>0.3713090542738691</v>
       </c>
       <c r="Q3">
-        <v>3.32345802361364</v>
+        <v>2.195786830443333</v>
       </c>
       <c r="R3">
-        <v>3.32345802361364</v>
+        <v>13.17472098266</v>
       </c>
       <c r="S3">
-        <v>0.006228082080920496</v>
+        <v>0.003342192059279375</v>
       </c>
       <c r="T3">
-        <v>0.006228082080920496</v>
+        <v>0.004272994991919575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.04670685051394</v>
+        <v>0.66889</v>
       </c>
       <c r="H4">
-        <v>2.04670685051394</v>
+        <v>1.33778</v>
       </c>
       <c r="I4">
-        <v>0.04177916575864148</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J4">
-        <v>0.04177916575864148</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.81400923213459</v>
+        <v>0.05984166666666666</v>
       </c>
       <c r="N4">
-        <v>2.81400923213459</v>
+        <v>0.179525</v>
       </c>
       <c r="O4">
-        <v>0.2583363546629614</v>
+        <v>0.005163140351813407</v>
       </c>
       <c r="P4">
-        <v>0.2583363546629614</v>
+        <v>0.00676867633420781</v>
       </c>
       <c r="Q4">
-        <v>5.759451972819338</v>
+        <v>0.04002749241666666</v>
       </c>
       <c r="R4">
-        <v>5.759451972819338</v>
+        <v>0.2401649545</v>
       </c>
       <c r="S4">
-        <v>0.01079307738294706</v>
+        <v>6.092557139567068E-05</v>
       </c>
       <c r="T4">
-        <v>0.01079307738294706</v>
+        <v>7.789338758397721E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.04670685051394</v>
+        <v>0.66889</v>
       </c>
       <c r="H5">
-        <v>2.04670685051394</v>
+        <v>1.33778</v>
       </c>
       <c r="I5">
-        <v>0.04177916575864148</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J5">
-        <v>0.04177916575864148</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.078802334421299</v>
+        <v>8.141729999999999</v>
       </c>
       <c r="N5">
-        <v>8.078802334421299</v>
+        <v>16.28346</v>
       </c>
       <c r="O5">
-        <v>0.7416636453370387</v>
+        <v>0.7024686483203415</v>
       </c>
       <c r="P5">
-        <v>0.7416636453370387</v>
+        <v>0.6139393975269155</v>
       </c>
       <c r="Q5">
-        <v>16.53494008180808</v>
+        <v>5.445921779699999</v>
       </c>
       <c r="R5">
-        <v>16.53494008180808</v>
+        <v>21.7836871188</v>
       </c>
       <c r="S5">
-        <v>0.03098608837569443</v>
+        <v>0.008289200151498796</v>
       </c>
       <c r="T5">
-        <v>0.03098608837569443</v>
+        <v>0.00706516563703211</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.122104105361669</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H6">
-        <v>0.122104105361669</v>
+        <v>7.049111</v>
       </c>
       <c r="I6">
-        <v>0.002492495521004779</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J6">
-        <v>0.002492495521004779</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>2.81400923213459</v>
+        <v>0.1058645</v>
       </c>
       <c r="N6">
-        <v>2.81400923213459</v>
+        <v>0.211729</v>
       </c>
       <c r="O6">
-        <v>0.2583363546629614</v>
+        <v>0.009133991451461643</v>
       </c>
       <c r="P6">
-        <v>0.2583363546629614</v>
+        <v>0.007982871865007578</v>
       </c>
       <c r="Q6">
-        <v>0.3436020797692713</v>
+        <v>0.2487502038198333</v>
       </c>
       <c r="R6">
-        <v>0.3436020797692713</v>
+        <v>1.492501222919</v>
       </c>
       <c r="S6">
-        <v>0.0006439022069101334</v>
+        <v>0.0003786209774210723</v>
       </c>
       <c r="T6">
-        <v>0.0006439022069101334</v>
+        <v>0.0004840671965167576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.122104105361669</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H7">
-        <v>0.122104105361669</v>
+        <v>7.049111</v>
       </c>
       <c r="I7">
-        <v>0.002492495521004779</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J7">
-        <v>0.002492495521004779</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.078802334421299</v>
+        <v>3.282732333333333</v>
       </c>
       <c r="N7">
-        <v>8.078802334421299</v>
+        <v>9.848196999999999</v>
       </c>
       <c r="O7">
-        <v>0.7416636453370387</v>
+        <v>0.2832342198763835</v>
       </c>
       <c r="P7">
-        <v>0.7416636453370387</v>
+        <v>0.3713090542738691</v>
       </c>
       <c r="Q7">
-        <v>0.9864549314382758</v>
+        <v>7.713448200318555</v>
       </c>
       <c r="R7">
-        <v>0.9864549314382758</v>
+        <v>69.42103380286699</v>
       </c>
       <c r="S7">
-        <v>0.001848593314094646</v>
+        <v>0.01174058654845037</v>
       </c>
       <c r="T7">
-        <v>0.001848593314094646</v>
+        <v>0.02251552273205249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.295842232935032</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H8">
-        <v>0.295842232935032</v>
+        <v>7.049111</v>
       </c>
       <c r="I8">
-        <v>0.006038989748383188</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J8">
-        <v>0.006038989748383188</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.81400923213459</v>
+        <v>0.05984166666666666</v>
       </c>
       <c r="N8">
-        <v>2.81400923213459</v>
+        <v>0.179525</v>
       </c>
       <c r="O8">
-        <v>0.2583363546629614</v>
+        <v>0.005163140351813407</v>
       </c>
       <c r="P8">
-        <v>0.2583363546629614</v>
+        <v>0.00676867633420781</v>
       </c>
       <c r="Q8">
-        <v>0.8325027747344919</v>
+        <v>0.1406101835861111</v>
       </c>
       <c r="R8">
-        <v>0.8325027747344919</v>
+        <v>1.265491652275</v>
       </c>
       <c r="S8">
-        <v>0.001560090597444307</v>
+        <v>0.0002140217950667063</v>
       </c>
       <c r="T8">
-        <v>0.001560090597444307</v>
+        <v>0.0004104405322590241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.295842232935032</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H9">
-        <v>0.295842232935032</v>
+        <v>7.049111</v>
       </c>
       <c r="I9">
-        <v>0.006038989748383188</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J9">
-        <v>0.006038989748383188</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.078802334421299</v>
+        <v>8.141729999999999</v>
       </c>
       <c r="N9">
-        <v>8.078802334421299</v>
+        <v>16.28346</v>
       </c>
       <c r="O9">
-        <v>0.7416636453370387</v>
+        <v>0.7024686483203415</v>
       </c>
       <c r="P9">
-        <v>0.7416636453370387</v>
+        <v>0.6139393975269155</v>
       </c>
       <c r="Q9">
-        <v>2.390050922055946</v>
+        <v>19.13065283401</v>
       </c>
       <c r="R9">
-        <v>2.390050922055946</v>
+        <v>114.78391700406</v>
       </c>
       <c r="S9">
-        <v>0.004478899150938881</v>
+        <v>0.02911863533572129</v>
       </c>
       <c r="T9">
-        <v>0.004478899150938881</v>
+        <v>0.03722819657105433</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>46.1126627723926</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H10">
-        <v>46.1126627723926</v>
+        <v>0.06322</v>
       </c>
       <c r="I10">
-        <v>0.941291900721571</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J10">
-        <v>0.941291900721571</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>2.81400923213459</v>
+        <v>0.1058645</v>
       </c>
       <c r="N10">
-        <v>2.81400923213459</v>
+        <v>0.211729</v>
       </c>
       <c r="O10">
-        <v>0.2583363546629614</v>
+        <v>0.009133991451461643</v>
       </c>
       <c r="P10">
-        <v>0.2583363546629614</v>
+        <v>0.007982871865007578</v>
       </c>
       <c r="Q10">
-        <v>129.7614587598218</v>
+        <v>0.002230917896666666</v>
       </c>
       <c r="R10">
-        <v>129.7614587598218</v>
+        <v>0.01338550738</v>
       </c>
       <c r="S10">
-        <v>0.2431699183061808</v>
+        <v>3.395664813982953E-06</v>
       </c>
       <c r="T10">
-        <v>0.2431699183061808</v>
+        <v>4.341359947912498E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.02107333333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.06322</v>
+      </c>
+      <c r="I11">
+        <v>0.000371761330413723</v>
+      </c>
+      <c r="J11">
+        <v>0.0005438343520134124</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.282732333333333</v>
+      </c>
+      <c r="N11">
+        <v>9.848196999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2832342198763835</v>
+      </c>
+      <c r="P11">
+        <v>0.3713090542738691</v>
+      </c>
+      <c r="Q11">
+        <v>0.06917811270444443</v>
+      </c>
+      <c r="R11">
+        <v>0.6226030143399999</v>
+      </c>
+      <c r="S11">
+        <v>0.0001052955303999373</v>
+      </c>
+      <c r="T11">
+        <v>0.0002019306189277426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.02107333333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.06322</v>
+      </c>
+      <c r="I12">
+        <v>0.000371761330413723</v>
+      </c>
+      <c r="J12">
+        <v>0.0005438343520134124</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05984166666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.179525</v>
+      </c>
+      <c r="O12">
+        <v>0.005163140351813407</v>
+      </c>
+      <c r="P12">
+        <v>0.00676867633420781</v>
+      </c>
+      <c r="Q12">
+        <v>0.001261063388888889</v>
+      </c>
+      <c r="R12">
+        <v>0.0113495705</v>
+      </c>
+      <c r="S12">
+        <v>1.91945592630293E-06</v>
+      </c>
+      <c r="T12">
+        <v>3.681038708202424E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.02107333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.06322</v>
+      </c>
+      <c r="I13">
+        <v>0.000371761330413723</v>
+      </c>
+      <c r="J13">
+        <v>0.0005438343520134124</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.141729999999999</v>
+      </c>
+      <c r="N13">
+        <v>16.28346</v>
+      </c>
+      <c r="O13">
+        <v>0.7024686483203415</v>
+      </c>
+      <c r="P13">
+        <v>0.6139393975269155</v>
+      </c>
+      <c r="Q13">
+        <v>0.1715733902</v>
+      </c>
+      <c r="R13">
+        <v>1.0294403412</v>
+      </c>
+      <c r="S13">
+        <v>0.0002611506792734998</v>
+      </c>
+      <c r="T13">
+        <v>0.0003338813344295549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.128441</v>
+      </c>
+      <c r="H14">
+        <v>0.385323</v>
+      </c>
+      <c r="I14">
+        <v>0.002265868255599604</v>
+      </c>
+      <c r="J14">
+        <v>0.00331464542899184</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.1058645</v>
+      </c>
+      <c r="N14">
+        <v>0.211729</v>
+      </c>
+      <c r="O14">
+        <v>0.009133991451461643</v>
+      </c>
+      <c r="P14">
+        <v>0.007982871865007578</v>
+      </c>
+      <c r="Q14">
+        <v>0.0135973422445</v>
+      </c>
+      <c r="R14">
+        <v>0.081584053467</v>
+      </c>
+      <c r="S14">
+        <v>2.069642127678509E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.646038973757494E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.128441</v>
+      </c>
+      <c r="H15">
+        <v>0.385323</v>
+      </c>
+      <c r="I15">
+        <v>0.002265868255599604</v>
+      </c>
+      <c r="J15">
+        <v>0.00331464542899184</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.282732333333333</v>
+      </c>
+      <c r="N15">
+        <v>9.848196999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.2832342198763835</v>
+      </c>
+      <c r="P15">
+        <v>0.3713090542738691</v>
+      </c>
+      <c r="Q15">
+        <v>0.4216374236256666</v>
+      </c>
+      <c r="R15">
+        <v>3.794736812630999</v>
+      </c>
+      <c r="S15">
+        <v>0.0006417714277174158</v>
+      </c>
+      <c r="T15">
+        <v>0.001230757859492163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>46.1126627723926</v>
-      </c>
-      <c r="H11">
-        <v>46.1126627723926</v>
-      </c>
-      <c r="I11">
-        <v>0.941291900721571</v>
-      </c>
-      <c r="J11">
-        <v>0.941291900721571</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.078802334421299</v>
-      </c>
-      <c r="N11">
-        <v>8.078802334421299</v>
-      </c>
-      <c r="O11">
-        <v>0.7416636453370387</v>
-      </c>
-      <c r="P11">
-        <v>0.7416636453370387</v>
-      </c>
-      <c r="Q11">
-        <v>372.5350876519875</v>
-      </c>
-      <c r="R11">
-        <v>372.5350876519875</v>
-      </c>
-      <c r="S11">
-        <v>0.6981219824153903</v>
-      </c>
-      <c r="T11">
-        <v>0.6981219824153903</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.128441</v>
+      </c>
+      <c r="H16">
+        <v>0.385323</v>
+      </c>
+      <c r="I16">
+        <v>0.002265868255599604</v>
+      </c>
+      <c r="J16">
+        <v>0.00331464542899184</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.05984166666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.179525</v>
+      </c>
+      <c r="O16">
+        <v>0.005163140351813407</v>
+      </c>
+      <c r="P16">
+        <v>0.00676867633420781</v>
+      </c>
+      <c r="Q16">
+        <v>0.007686123508333332</v>
+      </c>
+      <c r="R16">
+        <v>0.06917511157499999</v>
+      </c>
+      <c r="S16">
+        <v>1.169899582237937E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.243576207150716E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.128441</v>
+      </c>
+      <c r="H17">
+        <v>0.385323</v>
+      </c>
+      <c r="I17">
+        <v>0.002265868255599604</v>
+      </c>
+      <c r="J17">
+        <v>0.00331464542899184</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.141729999999999</v>
+      </c>
+      <c r="N17">
+        <v>16.28346</v>
+      </c>
+      <c r="O17">
+        <v>0.7024686483203415</v>
+      </c>
+      <c r="P17">
+        <v>0.6139393975269155</v>
+      </c>
+      <c r="Q17">
+        <v>1.04573194293</v>
+      </c>
+      <c r="R17">
+        <v>6.274391657579999</v>
+      </c>
+      <c r="S17">
+        <v>0.001591701410783024</v>
+      </c>
+      <c r="T17">
+        <v>0.002034991417690595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.137562</v>
+      </c>
+      <c r="I18">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="J18">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.1058645</v>
+      </c>
+      <c r="N18">
+        <v>0.211729</v>
+      </c>
+      <c r="O18">
+        <v>0.009133991451461643</v>
+      </c>
+      <c r="P18">
+        <v>0.007982871865007578</v>
+      </c>
+      <c r="Q18">
+        <v>0.04014247744966667</v>
+      </c>
+      <c r="R18">
+        <v>0.240854864698</v>
+      </c>
+      <c r="S18">
+        <v>6.110058932496165E-05</v>
+      </c>
+      <c r="T18">
+        <v>7.811714813456559E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.137562</v>
+      </c>
+      <c r="I19">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="J19">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.282732333333333</v>
+      </c>
+      <c r="N19">
+        <v>9.848196999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2832342198763835</v>
+      </c>
+      <c r="P19">
+        <v>0.3713090542738691</v>
+      </c>
+      <c r="Q19">
+        <v>1.244770519523778</v>
+      </c>
+      <c r="R19">
+        <v>11.202934675714</v>
+      </c>
+      <c r="S19">
+        <v>0.001894656661702205</v>
+      </c>
+      <c r="T19">
+        <v>0.00363347989131099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.137562</v>
+      </c>
+      <c r="I20">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="J20">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05984166666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.179525</v>
+      </c>
+      <c r="O20">
+        <v>0.005163140351813407</v>
+      </c>
+      <c r="P20">
+        <v>0.00676867633420781</v>
+      </c>
+      <c r="Q20">
+        <v>0.02269120200555555</v>
+      </c>
+      <c r="R20">
+        <v>0.20422081805</v>
+      </c>
+      <c r="S20">
+        <v>3.45381227845146E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.62355228563772E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.137562</v>
+      </c>
+      <c r="I21">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="J21">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.141729999999999</v>
+      </c>
+      <c r="N21">
+        <v>16.28346</v>
+      </c>
+      <c r="O21">
+        <v>0.7024686483203415</v>
+      </c>
+      <c r="P21">
+        <v>0.6139393975269155</v>
+      </c>
+      <c r="Q21">
+        <v>3.08724088742</v>
+      </c>
+      <c r="R21">
+        <v>18.52344532452</v>
+      </c>
+      <c r="S21">
+        <v>0.004699068159059175</v>
+      </c>
+      <c r="T21">
+        <v>0.006007762077765793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>53.1378185</v>
+      </c>
+      <c r="H22">
+        <v>106.275637</v>
+      </c>
+      <c r="I22">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J22">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.1058645</v>
+      </c>
+      <c r="N22">
+        <v>0.211729</v>
+      </c>
+      <c r="O22">
+        <v>0.009133991451461643</v>
+      </c>
+      <c r="P22">
+        <v>0.007982871865007578</v>
+      </c>
+      <c r="Q22">
+        <v>5.625408586593251</v>
+      </c>
+      <c r="R22">
+        <v>22.501634346373</v>
+      </c>
+      <c r="S22">
+        <v>0.008562395787990942</v>
+      </c>
+      <c r="T22">
+        <v>0.007298019517726789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>53.1378185</v>
+      </c>
+      <c r="H23">
+        <v>106.275637</v>
+      </c>
+      <c r="I23">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J23">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.282732333333333</v>
+      </c>
+      <c r="N23">
+        <v>9.848196999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.2832342198763835</v>
+      </c>
+      <c r="P23">
+        <v>0.3713090542738691</v>
+      </c>
+      <c r="Q23">
+        <v>174.4372349127482</v>
+      </c>
+      <c r="R23">
+        <v>1046.623409476489</v>
+      </c>
+      <c r="S23">
+        <v>0.2655097176488342</v>
+      </c>
+      <c r="T23">
+        <v>0.3394543681801662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>53.1378185</v>
+      </c>
+      <c r="H24">
+        <v>106.275637</v>
+      </c>
+      <c r="I24">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J24">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05984166666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.179525</v>
+      </c>
+      <c r="O24">
+        <v>0.005163140351813407</v>
+      </c>
+      <c r="P24">
+        <v>0.00676867633420781</v>
+      </c>
+      <c r="Q24">
+        <v>3.179855622070833</v>
+      </c>
+      <c r="R24">
+        <v>19.079133732425</v>
+      </c>
+      <c r="S24">
+        <v>0.004840036410817833</v>
+      </c>
+      <c r="T24">
+        <v>0.006187990090728722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>53.1378185</v>
+      </c>
+      <c r="H25">
+        <v>106.275637</v>
+      </c>
+      <c r="I25">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J25">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.141729999999999</v>
+      </c>
+      <c r="N25">
+        <v>16.28346</v>
+      </c>
+      <c r="O25">
+        <v>0.7024686483203415</v>
+      </c>
+      <c r="P25">
+        <v>0.6139393975269155</v>
+      </c>
+      <c r="Q25">
+        <v>432.633771016005</v>
+      </c>
+      <c r="R25">
+        <v>1730.53508406402</v>
+      </c>
+      <c r="S25">
+        <v>0.6585088925840058</v>
+      </c>
+      <c r="T25">
+        <v>0.5612694004889431</v>
       </c>
     </row>
   </sheetData>
